--- a/Archivos/Productos/Electronic accessories.xlsx
+++ b/Archivos/Productos/Electronic accessories.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Martina\Supermercado sql\TP_integrador_Archivos\TP_integrador_Archivos\Productos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ingunlamedu.sharepoint.com/sites/BasesdeDatosAplicada-Docentes/Documentos compartidos/Docentes/2024/2doCuatrimestre/TP Integrador-Preparacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_003114633F7A49C9E2EE080DB99291CCF8B648EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25651E64-4B12-4D94-9C8D-55CBEB878F4F}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,13 +90,13 @@
     <t>LG Dryer</t>
   </si>
   <si>
-    <t>PrecioUnitarioendolares</t>
+    <t>Precio Unitario en dolares</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,19 +407,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A20" sqref="A20:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -426,7 +427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -434,7 +435,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -442,7 +443,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -450,7 +451,7 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -458,7 +459,7 @@
         <v>149.99</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -466,7 +467,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -474,7 +475,7 @@
         <v>99.99</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -482,7 +483,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -490,7 +491,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -498,7 +499,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -506,7 +507,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -514,7 +515,7 @@
         <v>11.99</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -522,7 +523,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -530,7 +531,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -538,7 +539,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -546,7 +547,7 @@
         <v>109.99</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -554,7 +555,7 @@
         <v>379.99</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -562,7 +563,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -570,7 +571,7 @@
         <v>389.99</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -578,7 +579,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>14</v>
       </c>
@@ -586,7 +587,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -594,7 +595,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>12</v>
       </c>
@@ -602,7 +603,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>17</v>
       </c>
@@ -610,7 +611,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -618,7 +619,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>13</v>
       </c>
@@ -627,12 +628,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C26"/>
+  <autoFilter ref="B1:C26" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E0244CD539E758458F9751B276EDBDB5" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="940421aca186f6b6cf253ceb76bcb39c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c1a4ef89-8e8d-479e-83ea-6deabd5e5c29" xmlns:ns3="5ab81898-6d95-4a49-9528-d5d2a870eede" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4f5da10e60c2eff5832bc3c34d166e5" ns2:_="" ns3:_="">
     <xsd:import namespace="c1a4ef89-8e8d-479e-83ea-6deabd5e5c29"/>
@@ -843,16 +853,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A22817B7-3A19-4CC3-9D7A-3994C61A4289}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20BFC34B-D24C-41C5-A0BD-1DEB3B84AD52}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -869,12 +878,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A22817B7-3A19-4CC3-9D7A-3994C61A4289}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>